--- a/נספחים ופרוטוקולים/(2020-11-08) Ver 2.1 - רשימת גנים ומחלות.xlsx
+++ b/נספחים ופרוטוקולים/(2020-11-08) Ver 2.1 - רשימת גנים ומחלות.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gamidor\MyScreen_Analysis_v2.0.8\נספחים ופרוטוקולים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gamidor\MyScreen\נספחים ופרוטוקולים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D418443-9786-4171-9BA4-DD38D89F8060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B816E-44A2-4A8B-98A9-1FE69E056F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$B$509</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1083">
   <si>
     <t>row #</t>
   </si>
@@ -3059,6 +3069,219 @@
   </si>
   <si>
     <t xml:space="preserve"> Brittle cornea syndrome 1</t>
+  </si>
+  <si>
+    <t>Walker Warburg syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leukodystrophy, optic atrophy </t>
+  </si>
+  <si>
+    <t>APS-1</t>
+  </si>
+  <si>
+    <t>CEDNIK Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muscular dystrophy-dystroglycanopathy , type A, 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muscular dystrophy-dystroglycanopathy , type A, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neurodevelopmental disorder</t>
+  </si>
+  <si>
+    <t>Growth retardation</t>
+  </si>
+  <si>
+    <t>Gyrate atrophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muscular dystrophy-dystroglycanopathy , type A, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renal tubular acidosis (RTA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hypotonia infantile (HPFR2)</t>
+  </si>
+  <si>
+    <t>Leukoencephalopathy, LBSL</t>
+  </si>
+  <si>
+    <t>Erythroderma (EPKHE)</t>
+  </si>
+  <si>
+    <t>Infantile neurodegenerative disorder (PEBAT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hemoglobipathies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congenital surfactant deficiency (SMDP3)</t>
+  </si>
+  <si>
+    <t>Myasthenic syndrome (CMS4C)</t>
+  </si>
+  <si>
+    <t>3-methylglutaconic aciduria (MEGDEL)</t>
+  </si>
+  <si>
+    <t>Muscular dystrophy-dystroglycanopathy (MDDGA7)</t>
+  </si>
+  <si>
+    <t>Exfoliative ichthyosis (PSS4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrenal insufficiency (P450scc) </t>
+  </si>
+  <si>
+    <t>Dystonia (DYTOABG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microcephaly (ICCA)</t>
+  </si>
+  <si>
+    <t>Antley-Bixler syndrome (ABS1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Birk Volodarsky PMR Synderome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ectodermal dysplasia 10B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciliary dyskinesia (CILD3/PCD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Night blindness, 1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bartter syndrome, type 4a</t>
+  </si>
+  <si>
+    <t>Carmi syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Striatonigral degeneration (IBSN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proteinuria</t>
+  </si>
+  <si>
+    <t>Zlotogora-Ogur syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spastic tetraplegia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glaucoma 3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stuve-Wiedemann syndrome</t>
+  </si>
+  <si>
+    <t>Myopathy</t>
+  </si>
+  <si>
+    <t>Dystrophic epidermolysis bullosa</t>
+  </si>
+  <si>
+    <t>Hyperuricemia</t>
+  </si>
+  <si>
+    <t>Chronic granulomatous disease</t>
+  </si>
+  <si>
+    <t>Short stature, onychodysplasia</t>
+  </si>
+  <si>
+    <t>Kostmann disease</t>
+  </si>
+  <si>
+    <t>Microcephaly,  (MISSBC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glycine encephalopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neuronal ceroid lipofuscinosis type 8</t>
+  </si>
+  <si>
+    <t>ARC syndrome 2</t>
+  </si>
+  <si>
+    <t>Ataxia (EAOH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSKETOLASE DEFICIENCY </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hemolytic anemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inflammatory bowel disease 28</t>
+  </si>
+  <si>
+    <t>Muscular dystrophy, LAMA2 deficiency</t>
+  </si>
+  <si>
+    <t>ARC syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciliary dyskinesia, primary, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciliary dyskinesia, primary, 1</t>
+  </si>
+  <si>
+    <t>Mitochondrial DNA depletion syndrome 6</t>
+  </si>
+  <si>
+    <t>Microcephaly, short stature</t>
+  </si>
+  <si>
+    <t>Hyper-IgE recurrent infection syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciliary dyskinesia, primary, 9</t>
+  </si>
+  <si>
+    <t>Muscular dystrophy-dystroglycanopathy, type C, 5</t>
+  </si>
+  <si>
+    <t>Developmental delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Severe combined immudeficiency, RAG1-related</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Severe combined immudeficiency, RAG2-related</t>
+  </si>
+  <si>
+    <t>Hypertrophic osteoarthropathy</t>
+  </si>
+  <si>
+    <t>Hyperekplexia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long-Chain hydroxylacyl-CoA dehydrogenase deficiency</t>
+  </si>
+  <si>
+    <t>Combined oxidative phosphorylation deficiency 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitochondrial DNA depletion syndrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megalencephalic leukoencephalopathy</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Disease (Short name)</t>
   </si>
 </sst>
 </file>
@@ -3413,18 +3636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:D509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3434,8 +3659,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3445,8 +3673,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3456,8 +3687,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3467,8 +3701,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3478,8 +3715,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3489,8 +3729,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3500,8 +3743,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3511,8 +3757,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3522,8 +3771,11 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3533,8 +3785,11 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3544,8 +3799,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3555,8 +3813,11 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3566,8 +3827,11 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3577,8 +3841,11 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3588,8 +3855,11 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3599,8 +3869,11 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3610,8 +3883,11 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3621,8 +3897,11 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3632,8 +3911,11 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3643,8 +3925,11 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3654,8 +3939,11 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3665,8 +3953,11 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3676,8 +3967,11 @@
       <c r="C23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3687,8 +3981,11 @@
       <c r="C24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3698,8 +3995,11 @@
       <c r="C25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3709,8 +4009,11 @@
       <c r="C26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3720,8 +4023,11 @@
       <c r="C27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3731,8 +4037,11 @@
       <c r="C28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3742,8 +4051,11 @@
       <c r="C29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3753,8 +4065,11 @@
       <c r="C30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3764,8 +4079,11 @@
       <c r="C31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3775,8 +4093,11 @@
       <c r="C32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3786,8 +4107,11 @@
       <c r="C33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3797,8 +4121,11 @@
       <c r="C34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3808,8 +4135,11 @@
       <c r="C35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3819,8 +4149,11 @@
       <c r="C36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3830,8 +4163,11 @@
       <c r="C37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3841,8 +4177,11 @@
       <c r="C38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3852,8 +4191,11 @@
       <c r="C39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3863,8 +4205,11 @@
       <c r="C40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3874,8 +4219,11 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3885,8 +4233,11 @@
       <c r="C42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3896,8 +4247,11 @@
       <c r="C43" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3907,8 +4261,11 @@
       <c r="C44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3918,8 +4275,11 @@
       <c r="C45" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3929,8 +4289,11 @@
       <c r="C46" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3940,8 +4303,11 @@
       <c r="C47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3951,8 +4317,11 @@
       <c r="C48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3962,8 +4331,11 @@
       <c r="C49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3973,8 +4345,11 @@
       <c r="C50" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3984,8 +4359,11 @@
       <c r="C51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3995,8 +4373,11 @@
       <c r="C52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4006,8 +4387,11 @@
       <c r="C53" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4017,8 +4401,11 @@
       <c r="C54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4028,8 +4415,11 @@
       <c r="C55" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4039,8 +4429,11 @@
       <c r="C56" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4050,8 +4443,11 @@
       <c r="C57" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4061,8 +4457,11 @@
       <c r="C58" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4072,8 +4471,11 @@
       <c r="C59" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4083,8 +4485,11 @@
       <c r="C60" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4094,8 +4499,11 @@
       <c r="C61" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4105,8 +4513,11 @@
       <c r="C62" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4116,8 +4527,11 @@
       <c r="C63" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4127,8 +4541,11 @@
       <c r="C64" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4138,8 +4555,11 @@
       <c r="C65" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4149,8 +4569,11 @@
       <c r="C66" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4160,8 +4583,11 @@
       <c r="C67" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4171,8 +4597,11 @@
       <c r="C68" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4182,8 +4611,11 @@
       <c r="C69" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4193,8 +4625,11 @@
       <c r="C70" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4204,8 +4639,11 @@
       <c r="C71" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4215,8 +4653,11 @@
       <c r="C72" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4226,8 +4667,11 @@
       <c r="C73" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4237,8 +4681,11 @@
       <c r="C74" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4248,8 +4695,11 @@
       <c r="C75" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4259,8 +4709,11 @@
       <c r="C76" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4270,8 +4723,11 @@
       <c r="C77" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4281,8 +4737,11 @@
       <c r="C78" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4292,8 +4751,11 @@
       <c r="C79" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4303,8 +4765,11 @@
       <c r="C80" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4314,8 +4779,11 @@
       <c r="C81" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4325,8 +4793,11 @@
       <c r="C82" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4336,8 +4807,11 @@
       <c r="C83" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4347,8 +4821,11 @@
       <c r="C84" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4358,8 +4835,11 @@
       <c r="C85" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4369,8 +4849,11 @@
       <c r="C86" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4380,8 +4863,11 @@
       <c r="C87" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4391,8 +4877,11 @@
       <c r="C88" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4402,8 +4891,11 @@
       <c r="C89" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4413,8 +4905,11 @@
       <c r="C90" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4424,8 +4919,11 @@
       <c r="C91" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4435,8 +4933,11 @@
       <c r="C92" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4446,8 +4947,11 @@
       <c r="C93" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4457,8 +4961,11 @@
       <c r="C94" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4468,8 +4975,11 @@
       <c r="C95" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4479,8 +4989,11 @@
       <c r="C96" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4490,8 +5003,11 @@
       <c r="C97" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4501,8 +5017,11 @@
       <c r="C98" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4512,8 +5031,11 @@
       <c r="C99" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4523,8 +5045,11 @@
       <c r="C100" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4534,8 +5059,11 @@
       <c r="C101" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4545,8 +5073,11 @@
       <c r="C102" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4556,8 +5087,11 @@
       <c r="C103" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4567,8 +5101,11 @@
       <c r="C104" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4578,8 +5115,11 @@
       <c r="C105" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4589,8 +5129,11 @@
       <c r="C106" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4600,8 +5143,11 @@
       <c r="C107" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4611,8 +5157,11 @@
       <c r="C108" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4622,8 +5171,11 @@
       <c r="C109" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4633,8 +5185,11 @@
       <c r="C110" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4644,8 +5199,11 @@
       <c r="C111" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4655,8 +5213,11 @@
       <c r="C112" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4666,8 +5227,11 @@
       <c r="C113" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4677,8 +5241,11 @@
       <c r="C114" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4688,8 +5255,11 @@
       <c r="C115" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4699,8 +5269,11 @@
       <c r="C116" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4710,8 +5283,11 @@
       <c r="C117" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4721,8 +5297,11 @@
       <c r="C118" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4732,8 +5311,11 @@
       <c r="C119" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4743,8 +5325,11 @@
       <c r="C120" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4754,8 +5339,11 @@
       <c r="C121" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4765,8 +5353,11 @@
       <c r="C122" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4776,8 +5367,11 @@
       <c r="C123" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4787,8 +5381,11 @@
       <c r="C124" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4798,8 +5395,11 @@
       <c r="C125" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4809,8 +5409,11 @@
       <c r="C126" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4820,8 +5423,11 @@
       <c r="C127" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4831,8 +5437,11 @@
       <c r="C128" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4842,8 +5451,11 @@
       <c r="C129" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4853,8 +5465,11 @@
       <c r="C130" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4864,8 +5479,11 @@
       <c r="C131" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4875,8 +5493,11 @@
       <c r="C132" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4886,8 +5507,11 @@
       <c r="C133" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4897,8 +5521,11 @@
       <c r="C134" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4908,8 +5535,11 @@
       <c r="C135" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4919,8 +5549,11 @@
       <c r="C136" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4930,8 +5563,11 @@
       <c r="C137" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4941,8 +5577,11 @@
       <c r="C138" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4952,8 +5591,11 @@
       <c r="C139" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4963,8 +5605,11 @@
       <c r="C140" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4974,8 +5619,11 @@
       <c r="C141" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4985,8 +5633,11 @@
       <c r="C142" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4996,8 +5647,11 @@
       <c r="C143" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5007,8 +5661,11 @@
       <c r="C144" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5018,8 +5675,11 @@
       <c r="C145" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5029,8 +5689,11 @@
       <c r="C146" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5040,8 +5703,11 @@
       <c r="C147" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5051,8 +5717,11 @@
       <c r="C148" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5062,8 +5731,11 @@
       <c r="C149" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5073,8 +5745,11 @@
       <c r="C150" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5084,8 +5759,11 @@
       <c r="C151" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5095,8 +5773,11 @@
       <c r="C152" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5106,8 +5787,11 @@
       <c r="C153" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5117,8 +5801,11 @@
       <c r="C154" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5128,8 +5815,11 @@
       <c r="C155" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5139,8 +5829,11 @@
       <c r="C156" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5150,8 +5843,11 @@
       <c r="C157" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5161,8 +5857,11 @@
       <c r="C158" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5172,8 +5871,11 @@
       <c r="C159" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5183,8 +5885,11 @@
       <c r="C160" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5194,8 +5899,11 @@
       <c r="C161" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5205,8 +5913,11 @@
       <c r="C162" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5216,8 +5927,11 @@
       <c r="C163" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5227,8 +5941,11 @@
       <c r="C164" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5238,8 +5955,11 @@
       <c r="C165" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5249,8 +5969,11 @@
       <c r="C166" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5260,8 +5983,11 @@
       <c r="C167" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5271,8 +5997,11 @@
       <c r="C168" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5282,8 +6011,11 @@
       <c r="C169" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5293,8 +6025,11 @@
       <c r="C170" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5304,8 +6039,11 @@
       <c r="C171" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5315,8 +6053,11 @@
       <c r="C172" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5326,8 +6067,11 @@
       <c r="C173" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5337,8 +6081,11 @@
       <c r="C174" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5348,8 +6095,11 @@
       <c r="C175" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5359,8 +6109,11 @@
       <c r="C176" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5370,8 +6123,11 @@
       <c r="C177" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5381,8 +6137,11 @@
       <c r="C178" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5392,8 +6151,11 @@
       <c r="C179" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5403,8 +6165,11 @@
       <c r="C180" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5414,8 +6179,11 @@
       <c r="C181" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5425,8 +6193,11 @@
       <c r="C182" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5436,8 +6207,11 @@
       <c r="C183" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5447,8 +6221,11 @@
       <c r="C184" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5458,8 +6235,11 @@
       <c r="C185" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5469,8 +6249,11 @@
       <c r="C186" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5480,8 +6263,11 @@
       <c r="C187" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5491,8 +6277,11 @@
       <c r="C188" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5502,8 +6291,11 @@
       <c r="C189" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5513,8 +6305,11 @@
       <c r="C190" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5524,8 +6319,11 @@
       <c r="C191" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5535,8 +6333,11 @@
       <c r="C192" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5546,8 +6347,11 @@
       <c r="C193" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5557,8 +6361,11 @@
       <c r="C194" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5568,8 +6375,11 @@
       <c r="C195" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5579,8 +6389,11 @@
       <c r="C196" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5590,8 +6403,11 @@
       <c r="C197" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5601,8 +6417,11 @@
       <c r="C198" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5612,8 +6431,11 @@
       <c r="C199" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5623,8 +6445,11 @@
       <c r="C200" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5634,8 +6459,11 @@
       <c r="C201" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5645,8 +6473,11 @@
       <c r="C202" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5656,8 +6487,11 @@
       <c r="C203" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5667,8 +6501,11 @@
       <c r="C204" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5678,8 +6515,11 @@
       <c r="C205" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5689,8 +6529,11 @@
       <c r="C206" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5700,8 +6543,11 @@
       <c r="C207" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5711,8 +6557,11 @@
       <c r="C208" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5722,8 +6571,11 @@
       <c r="C209" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5733,8 +6585,11 @@
       <c r="C210" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5744,8 +6599,11 @@
       <c r="C211" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5755,8 +6613,11 @@
       <c r="C212" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5766,8 +6627,11 @@
       <c r="C213" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5777,8 +6641,11 @@
       <c r="C214" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5788,8 +6655,11 @@
       <c r="C215" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5799,8 +6669,11 @@
       <c r="C216" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5810,8 +6683,11 @@
       <c r="C217" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5821,8 +6697,11 @@
       <c r="C218" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5832,8 +6711,11 @@
       <c r="C219" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5843,8 +6725,11 @@
       <c r="C220" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5854,8 +6739,11 @@
       <c r="C221" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5865,8 +6753,11 @@
       <c r="C222" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5876,8 +6767,11 @@
       <c r="C223" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5887,8 +6781,11 @@
       <c r="C224" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5898,8 +6795,11 @@
       <c r="C225" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5909,8 +6809,11 @@
       <c r="C226" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5920,8 +6823,11 @@
       <c r="C227" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5931,8 +6837,11 @@
       <c r="C228" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5942,8 +6851,11 @@
       <c r="C229" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5953,8 +6865,11 @@
       <c r="C230" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5964,8 +6879,11 @@
       <c r="C231" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5975,8 +6893,11 @@
       <c r="C232" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5986,8 +6907,11 @@
       <c r="C233" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5997,8 +6921,11 @@
       <c r="C234" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6008,8 +6935,11 @@
       <c r="C235" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6019,8 +6949,11 @@
       <c r="C236" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -6030,8 +6963,11 @@
       <c r="C237" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -6041,8 +6977,11 @@
       <c r="C238" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -6052,8 +6991,11 @@
       <c r="C239" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -6063,8 +7005,11 @@
       <c r="C240" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6074,8 +7019,11 @@
       <c r="C241" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6085,8 +7033,11 @@
       <c r="C242" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6096,8 +7047,11 @@
       <c r="C243" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6107,8 +7061,11 @@
       <c r="C244" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6118,8 +7075,11 @@
       <c r="C245" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6129,8 +7089,11 @@
       <c r="C246" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6140,8 +7103,11 @@
       <c r="C247" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6151,8 +7117,11 @@
       <c r="C248" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6162,8 +7131,11 @@
       <c r="C249" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6173,8 +7145,11 @@
       <c r="C250" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6184,8 +7159,11 @@
       <c r="C251" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6195,8 +7173,11 @@
       <c r="C252" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6206,8 +7187,11 @@
       <c r="C253" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6217,8 +7201,11 @@
       <c r="C254" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6228,8 +7215,11 @@
       <c r="C255" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6239,8 +7229,11 @@
       <c r="C256" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6250,8 +7243,11 @@
       <c r="C257" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6261,8 +7257,11 @@
       <c r="C258" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6272,8 +7271,11 @@
       <c r="C259" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6283,8 +7285,11 @@
       <c r="C260" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6294,8 +7299,11 @@
       <c r="C261" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6305,8 +7313,11 @@
       <c r="C262" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6316,8 +7327,11 @@
       <c r="C263" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6327,8 +7341,11 @@
       <c r="C264" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6338,8 +7355,11 @@
       <c r="C265" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6349,8 +7369,11 @@
       <c r="C266" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6360,8 +7383,11 @@
       <c r="C267" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6371,8 +7397,11 @@
       <c r="C268" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6382,8 +7411,11 @@
       <c r="C269" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6393,8 +7425,11 @@
       <c r="C270" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6404,8 +7439,11 @@
       <c r="C271" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6415,8 +7453,11 @@
       <c r="C272" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6426,8 +7467,11 @@
       <c r="C273" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6437,8 +7481,11 @@
       <c r="C274" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6448,8 +7495,11 @@
       <c r="C275" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6459,8 +7509,11 @@
       <c r="C276" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6470,8 +7523,11 @@
       <c r="C277" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6481,8 +7537,11 @@
       <c r="C278" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6492,8 +7551,11 @@
       <c r="C279" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6503,8 +7565,11 @@
       <c r="C280" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6514,8 +7579,11 @@
       <c r="C281" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6525,8 +7593,11 @@
       <c r="C282" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6536,8 +7607,11 @@
       <c r="C283" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6547,8 +7621,11 @@
       <c r="C284" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6558,8 +7635,11 @@
       <c r="C285" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6569,8 +7649,11 @@
       <c r="C286" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6580,8 +7663,11 @@
       <c r="C287" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6591,8 +7677,11 @@
       <c r="C288" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6602,8 +7691,11 @@
       <c r="C289" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6613,8 +7705,11 @@
       <c r="C290" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6624,8 +7719,11 @@
       <c r="C291" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6635,8 +7733,11 @@
       <c r="C292" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6646,8 +7747,11 @@
       <c r="C293" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6657,8 +7761,11 @@
       <c r="C294" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6668,8 +7775,11 @@
       <c r="C295" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6679,8 +7789,11 @@
       <c r="C296" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6690,8 +7803,11 @@
       <c r="C297" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6701,8 +7817,11 @@
       <c r="C298" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6712,8 +7831,11 @@
       <c r="C299" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6723,8 +7845,11 @@
       <c r="C300" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6734,8 +7859,11 @@
       <c r="C301" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6745,8 +7873,11 @@
       <c r="C302" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6756,8 +7887,11 @@
       <c r="C303" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6767,8 +7901,11 @@
       <c r="C304" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6778,8 +7915,11 @@
       <c r="C305" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6789,8 +7929,11 @@
       <c r="C306" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6800,8 +7943,11 @@
       <c r="C307" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6811,8 +7957,11 @@
       <c r="C308" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6822,8 +7971,11 @@
       <c r="C309" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6833,8 +7985,11 @@
       <c r="C310" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6844,8 +7999,11 @@
       <c r="C311" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6855,8 +8013,11 @@
       <c r="C312" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6866,8 +8027,11 @@
       <c r="C313" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6877,8 +8041,11 @@
       <c r="C314" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6888,8 +8055,11 @@
       <c r="C315" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6899,8 +8069,11 @@
       <c r="C316" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -6910,8 +8083,11 @@
       <c r="C317" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -6921,8 +8097,11 @@
       <c r="C318" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -6932,8 +8111,11 @@
       <c r="C319" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -6943,8 +8125,11 @@
       <c r="C320" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6954,8 +8139,11 @@
       <c r="C321" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6965,8 +8153,11 @@
       <c r="C322" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6976,8 +8167,11 @@
       <c r="C323" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -6987,8 +8181,11 @@
       <c r="C324" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -6998,8 +8195,11 @@
       <c r="C325" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7009,8 +8209,11 @@
       <c r="C326" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7020,8 +8223,11 @@
       <c r="C327" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7031,8 +8237,11 @@
       <c r="C328" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7042,8 +8251,11 @@
       <c r="C329" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7053,8 +8265,11 @@
       <c r="C330" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7064,8 +8279,11 @@
       <c r="C331" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7075,8 +8293,11 @@
       <c r="C332" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7086,8 +8307,11 @@
       <c r="C333" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7097,8 +8321,11 @@
       <c r="C334" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7108,8 +8335,11 @@
       <c r="C335" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7119,8 +8349,11 @@
       <c r="C336" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7130,8 +8363,11 @@
       <c r="C337" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7141,8 +8377,11 @@
       <c r="C338" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7152,8 +8391,11 @@
       <c r="C339" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7163,8 +8405,11 @@
       <c r="C340" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7174,8 +8419,11 @@
       <c r="C341" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7185,8 +8433,11 @@
       <c r="C342" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7196,8 +8447,11 @@
       <c r="C343" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7207,8 +8461,11 @@
       <c r="C344" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7218,8 +8475,11 @@
       <c r="C345" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7229,8 +8489,11 @@
       <c r="C346" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7240,8 +8503,11 @@
       <c r="C347" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7251,8 +8517,11 @@
       <c r="C348" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7262,8 +8531,11 @@
       <c r="C349" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7273,8 +8545,11 @@
       <c r="C350" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7284,8 +8559,11 @@
       <c r="C351" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7295,8 +8573,11 @@
       <c r="C352" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7306,8 +8587,11 @@
       <c r="C353" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7317,8 +8601,11 @@
       <c r="C354" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7328,8 +8615,11 @@
       <c r="C355" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7339,8 +8629,11 @@
       <c r="C356" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7350,8 +8643,11 @@
       <c r="C357" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -7361,8 +8657,11 @@
       <c r="C358" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -7372,8 +8671,11 @@
       <c r="C359" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -7383,8 +8685,11 @@
       <c r="C360" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -7394,8 +8699,11 @@
       <c r="C361" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -7405,8 +8713,11 @@
       <c r="C362" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -7416,8 +8727,11 @@
       <c r="C363" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -7427,8 +8741,11 @@
       <c r="C364" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -7438,8 +8755,11 @@
       <c r="C365" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -7449,8 +8769,11 @@
       <c r="C366" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -7460,8 +8783,11 @@
       <c r="C367" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -7471,8 +8797,11 @@
       <c r="C368" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -7482,8 +8811,11 @@
       <c r="C369" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -7493,8 +8825,11 @@
       <c r="C370" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -7504,8 +8839,11 @@
       <c r="C371" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -7515,8 +8853,11 @@
       <c r="C372" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -7526,8 +8867,11 @@
       <c r="C373" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -7537,8 +8881,11 @@
       <c r="C374" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -7548,8 +8895,11 @@
       <c r="C375" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -7559,8 +8909,11 @@
       <c r="C376" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -7570,8 +8923,11 @@
       <c r="C377" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -7581,8 +8937,11 @@
       <c r="C378" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -7592,8 +8951,11 @@
       <c r="C379" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -7603,8 +8965,11 @@
       <c r="C380" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -7614,8 +8979,11 @@
       <c r="C381" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -7625,8 +8993,11 @@
       <c r="C382" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7636,8 +9007,11 @@
       <c r="C383" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -7647,8 +9021,11 @@
       <c r="C384" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -7658,8 +9035,11 @@
       <c r="C385" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -7669,8 +9049,11 @@
       <c r="C386" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -7680,8 +9063,11 @@
       <c r="C387" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7691,8 +9077,11 @@
       <c r="C388" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -7702,8 +9091,11 @@
       <c r="C389" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -7713,8 +9105,11 @@
       <c r="C390" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -7724,8 +9119,11 @@
       <c r="C391" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -7735,8 +9133,11 @@
       <c r="C392" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -7746,8 +9147,11 @@
       <c r="C393" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -7757,8 +9161,11 @@
       <c r="C394" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -7768,8 +9175,11 @@
       <c r="C395" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -7779,8 +9189,11 @@
       <c r="C396" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -7790,8 +9203,11 @@
       <c r="C397" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -7801,8 +9217,11 @@
       <c r="C398" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -7812,8 +9231,11 @@
       <c r="C399" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -7823,8 +9245,11 @@
       <c r="C400" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -7834,8 +9259,11 @@
       <c r="C401" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -7845,8 +9273,11 @@
       <c r="C402" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -7856,8 +9287,11 @@
       <c r="C403" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -7867,8 +9301,11 @@
       <c r="C404" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -7878,8 +9315,11 @@
       <c r="C405" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -7889,8 +9329,11 @@
       <c r="C406" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -7900,8 +9343,11 @@
       <c r="C407" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -7911,8 +9357,11 @@
       <c r="C408" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -7922,8 +9371,11 @@
       <c r="C409" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -7933,8 +9385,11 @@
       <c r="C410" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -7944,8 +9399,11 @@
       <c r="C411" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -7955,8 +9413,11 @@
       <c r="C412" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -7966,8 +9427,11 @@
       <c r="C413" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -7977,8 +9441,11 @@
       <c r="C414" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -7988,8 +9455,11 @@
       <c r="C415" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -7999,8 +9469,11 @@
       <c r="C416" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -8010,8 +9483,11 @@
       <c r="C417" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -8021,8 +9497,11 @@
       <c r="C418" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -8032,8 +9511,11 @@
       <c r="C419" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -8043,8 +9525,11 @@
       <c r="C420" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -8054,8 +9539,11 @@
       <c r="C421" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -8065,8 +9553,11 @@
       <c r="C422" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -8076,8 +9567,11 @@
       <c r="C423" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -8087,8 +9581,11 @@
       <c r="C424" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -8098,8 +9595,11 @@
       <c r="C425" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -8109,8 +9609,11 @@
       <c r="C426" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -8120,8 +9623,11 @@
       <c r="C427" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -8131,8 +9637,11 @@
       <c r="C428" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -8142,8 +9651,11 @@
       <c r="C429" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -8153,8 +9665,11 @@
       <c r="C430" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -8164,8 +9679,11 @@
       <c r="C431" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -8175,8 +9693,11 @@
       <c r="C432" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -8186,8 +9707,11 @@
       <c r="C433" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -8197,8 +9721,11 @@
       <c r="C434" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -8208,8 +9735,11 @@
       <c r="C435" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -8219,8 +9749,11 @@
       <c r="C436" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -8230,8 +9763,11 @@
       <c r="C437" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -8241,8 +9777,11 @@
       <c r="C438" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -8252,8 +9791,11 @@
       <c r="C439" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -8263,8 +9805,11 @@
       <c r="C440" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -8274,8 +9819,11 @@
       <c r="C441" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -8285,8 +9833,11 @@
       <c r="C442" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -8296,8 +9847,11 @@
       <c r="C443" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -8307,8 +9861,11 @@
       <c r="C444" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -8318,8 +9875,11 @@
       <c r="C445" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -8329,8 +9889,11 @@
       <c r="C446" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -8340,8 +9903,11 @@
       <c r="C447" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -8351,8 +9917,11 @@
       <c r="C448" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -8362,8 +9931,11 @@
       <c r="C449" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -8373,8 +9945,11 @@
       <c r="C450" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -8384,8 +9959,11 @@
       <c r="C451" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -8395,8 +9973,11 @@
       <c r="C452" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -8406,8 +9987,11 @@
       <c r="C453" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -8417,8 +10001,11 @@
       <c r="C454" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -8428,8 +10015,11 @@
       <c r="C455" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -8439,8 +10029,11 @@
       <c r="C456" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -8450,8 +10043,11 @@
       <c r="C457" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -8461,8 +10057,11 @@
       <c r="C458" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -8472,8 +10071,11 @@
       <c r="C459" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -8483,8 +10085,11 @@
       <c r="C460" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -8494,8 +10099,11 @@
       <c r="C461" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D461" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -8505,8 +10113,11 @@
       <c r="C462" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D462" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -8516,8 +10127,11 @@
       <c r="C463" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D463" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -8527,8 +10141,11 @@
       <c r="C464" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D464" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -8538,8 +10155,11 @@
       <c r="C465" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D465" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -8549,8 +10169,11 @@
       <c r="C466" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D466" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -8560,8 +10183,11 @@
       <c r="C467" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D467" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -8571,8 +10197,11 @@
       <c r="C468" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D468" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -8582,8 +10211,11 @@
       <c r="C469" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D469" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -8593,8 +10225,11 @@
       <c r="C470" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D470" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -8604,8 +10239,11 @@
       <c r="C471" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D471" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -8615,8 +10253,11 @@
       <c r="C472" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D472" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -8626,8 +10267,11 @@
       <c r="C473" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D473" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -8637,8 +10281,11 @@
       <c r="C474" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D474" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -8648,8 +10295,11 @@
       <c r="C475" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D475" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -8659,8 +10309,11 @@
       <c r="C476" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D476" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -8670,8 +10323,11 @@
       <c r="C477" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D477" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -8681,8 +10337,11 @@
       <c r="C478" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D478" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -8692,8 +10351,11 @@
       <c r="C479" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D479" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -8703,8 +10365,11 @@
       <c r="C480" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D480" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -8714,8 +10379,11 @@
       <c r="C481" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D481" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -8725,8 +10393,11 @@
       <c r="C482" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D482" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -8736,8 +10407,11 @@
       <c r="C483" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D483" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -8747,8 +10421,11 @@
       <c r="C484" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D484" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -8758,8 +10435,11 @@
       <c r="C485" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D485" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -8769,8 +10449,11 @@
       <c r="C486" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D486" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -8780,8 +10463,11 @@
       <c r="C487" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D487" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -8791,8 +10477,11 @@
       <c r="C488" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D488" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -8802,8 +10491,11 @@
       <c r="C489" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D489" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -8813,8 +10505,11 @@
       <c r="C490" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D490" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -8824,8 +10519,11 @@
       <c r="C491" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D491" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -8835,8 +10533,11 @@
       <c r="C492" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D492" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -8846,8 +10547,11 @@
       <c r="C493" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D493" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -8857,8 +10561,11 @@
       <c r="C494" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D494" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -8868,8 +10575,11 @@
       <c r="C495" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D495" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -8879,8 +10589,11 @@
       <c r="C496" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D496" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -8890,8 +10603,11 @@
       <c r="C497" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D497" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -8901,8 +10617,11 @@
       <c r="C498" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D498" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -8912,8 +10631,11 @@
       <c r="C499" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D499" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -8923,8 +10645,11 @@
       <c r="C500" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D500" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -8934,8 +10659,11 @@
       <c r="C501" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D501" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -8945,8 +10673,11 @@
       <c r="C502" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D502" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -8956,8 +10687,11 @@
       <c r="C503" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D503" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -8967,8 +10701,11 @@
       <c r="C504" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D504" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -8978,8 +10715,11 @@
       <c r="C505" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D505" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -8989,8 +10729,11 @@
       <c r="C506" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D506" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -9000,8 +10743,11 @@
       <c r="C507" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D507" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -9011,8 +10757,11 @@
       <c r="C508" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D508" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -9022,9 +10771,15 @@
       <c r="C509" t="s">
         <v>1011</v>
       </c>
+      <c r="D509" t="s">
+        <v>1011</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B509" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D509">
+    <sortCondition ref="A2:A509"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
